--- a/MVPlate/MV_InputTemplate.xlsx
+++ b/MVPlate/MV_InputTemplate.xlsx
@@ -603,7 +603,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H6" s="9"/>
       <c r="N6" s="9" t="s">

--- a/MVPlate/MV_InputTemplate.xlsx
+++ b/MVPlate/MV_InputTemplate.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="38">
   <si>
     <t>Drug Name</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>AB4</t>
+  </si>
+  <si>
+    <t>, s</t>
+  </si>
+  <si>
+    <t>64,5</t>
+  </si>
+  <si>
+    <t>1000,5</t>
   </si>
 </sst>
 </file>
@@ -603,7 +612,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,8 +650,8 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
-        <v>1000</v>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D2" s="6">
         <v>1000</v>
@@ -724,7 +733,9 @@
       <c r="F6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="N6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1128,22 +1139,21 @@
       <c r="F22" s="2">
         <v>128</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" ref="G22:G27" si="1">F22/2</f>
-        <v>64</v>
+      <c r="G22" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="H22" s="2">
         <v>128</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" ref="I22:I27" si="2">H22/2</f>
+        <f t="shared" ref="I22:I27" si="1">H22/2</f>
         <v>64</v>
       </c>
       <c r="J22" s="2">
         <v>128</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" ref="K22:K27" si="3">J22/2</f>
+        <f t="shared" ref="K22:K27" si="2">J22/2</f>
         <v>64</v>
       </c>
       <c r="L22" s="2">
@@ -1176,22 +1186,21 @@
       <c r="F23" s="2">
         <v>128</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="2">
+        <v>128</v>
+      </c>
+      <c r="I23" s="2">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="H23" s="2">
-        <v>128</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
       <c r="J23" s="2">
         <v>128</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="L23" s="2">
@@ -1221,22 +1230,21 @@
       <c r="F24" s="2">
         <v>128</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="2">
+        <v>128</v>
+      </c>
+      <c r="I24" s="2">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="H24" s="2">
-        <v>128</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
       <c r="J24" s="2">
         <v>128</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="L24" s="2">
@@ -1266,22 +1274,21 @@
       <c r="F25" s="2">
         <v>128</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="2">
+        <v>128</v>
+      </c>
+      <c r="I25" s="2">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="H25" s="2">
-        <v>128</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
       <c r="J25" s="2">
         <v>128</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="L25" s="2">
@@ -1311,22 +1318,21 @@
       <c r="F26" s="2">
         <v>128</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="2">
+        <v>128</v>
+      </c>
+      <c r="I26" s="2">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="H26" s="2">
-        <v>128</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
       <c r="J26" s="2">
         <v>128</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="L26" s="2">
@@ -1356,22 +1362,21 @@
       <c r="F27" s="2">
         <v>128</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="2">
+        <v>128</v>
+      </c>
+      <c r="I27" s="2">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="H27" s="2">
-        <v>128</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
       <c r="J27" s="2">
         <v>128</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="L27" s="2">
@@ -2144,47 +2149,47 @@
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="C57" s="4" t="str">
-        <f t="shared" ref="C57:M57" si="4">CONCATENATE(C10," ",C21," ",C33," ",C45)</f>
+        <f t="shared" ref="C57:M57" si="3">CONCATENATE(C10," ",C21," ",C33," ",C45)</f>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="D57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="E57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="F57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="G57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="H57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="I57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="J57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="K57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="L57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="M57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>
@@ -2193,51 +2198,51 @@
         <v>6</v>
       </c>
       <c r="B58" s="4" t="str">
-        <f t="shared" ref="B58:M64" si="5">CONCATENATE(B11," ",B22," ",B34," ",B46)</f>
+        <f t="shared" ref="B58:M64" si="4">CONCATENATE(B11," ",B22," ",B34," ",B46)</f>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="C58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A STR_A</v>
       </c>
       <c r="D58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB1 128 MED_A STR_A</v>
       </c>
       <c r="E58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB1 64 MED_A STR_A</v>
       </c>
       <c r="F58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB2 128 MED_A STR_A</v>
       </c>
       <c r="G58" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>AB2 64 MED_A STR_A</v>
+        <f t="shared" si="4"/>
+        <v>AB2 64,5 MED_A STR_A</v>
       </c>
       <c r="H58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB3 128 MED_A STR_A</v>
       </c>
       <c r="I58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB3 64 MED_A STR_A</v>
       </c>
       <c r="J58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB4 128 MED_A STR_A</v>
       </c>
       <c r="K58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB4 64 MED_A STR_A</v>
       </c>
       <c r="L58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="M58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>
@@ -2246,51 +2251,51 @@
         <v>7</v>
       </c>
       <c r="B59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="C59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A STR_A</v>
       </c>
       <c r="D59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB1 128 MED_A STR_A</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB1 64 MED_A STR_A</v>
       </c>
       <c r="F59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB2 128 MED_A STR_A</v>
       </c>
       <c r="G59" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>AB2 64 MED_A STR_A</v>
+        <f t="shared" si="4"/>
+        <v>AB2 64,5 MED_A STR_A</v>
       </c>
       <c r="H59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB3 128 MED_A STR_A</v>
       </c>
       <c r="I59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB3 64 MED_A STR_A</v>
       </c>
       <c r="J59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB4 128 MED_A STR_A</v>
       </c>
       <c r="K59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB4 64 MED_A STR_A</v>
       </c>
       <c r="L59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="M59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>
@@ -2299,51 +2304,51 @@
         <v>8</v>
       </c>
       <c r="B60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="C60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A STR_A</v>
       </c>
       <c r="D60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB1 128 MED_A STR_A</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB1 64 MED_A STR_A</v>
       </c>
       <c r="F60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB2 128 MED_A STR_A</v>
       </c>
       <c r="G60" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>AB2 64 MED_A STR_A</v>
+        <f t="shared" si="4"/>
+        <v>AB2 64,5 MED_A STR_A</v>
       </c>
       <c r="H60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB3 128 MED_A STR_A</v>
       </c>
       <c r="I60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB3 64 MED_A STR_A</v>
       </c>
       <c r="J60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB4 128 MED_A STR_A</v>
       </c>
       <c r="K60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB4 64 MED_A STR_A</v>
       </c>
       <c r="L60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="M60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>
@@ -2352,51 +2357,51 @@
         <v>9</v>
       </c>
       <c r="B61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="C61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A STR_B</v>
       </c>
       <c r="D61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB1 128 MED_A STR_B</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB1 64 MED_A STR_B</v>
       </c>
       <c r="F61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB2 128 MED_A STR_B</v>
       </c>
       <c r="G61" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>AB2 64 MED_A STR_B</v>
+        <f t="shared" si="4"/>
+        <v>AB2 64,5 MED_A STR_B</v>
       </c>
       <c r="H61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB3 128 MED_A STR_B</v>
       </c>
       <c r="I61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB3 64 MED_A STR_B</v>
       </c>
       <c r="J61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB4 128 MED_A STR_B</v>
       </c>
       <c r="K61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB4 64 MED_A STR_B</v>
       </c>
       <c r="L61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="M61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>
@@ -2405,51 +2410,51 @@
         <v>10</v>
       </c>
       <c r="B62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="C62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A STR_B</v>
       </c>
       <c r="D62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB1 128 MED_A STR_B</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB1 64 MED_A STR_B</v>
       </c>
       <c r="F62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB2 128 MED_A STR_B</v>
       </c>
       <c r="G62" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>AB2 64 MED_A STR_B</v>
+        <f t="shared" si="4"/>
+        <v>AB2 64,5 MED_A STR_B</v>
       </c>
       <c r="H62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB3 128 MED_A STR_B</v>
       </c>
       <c r="I62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB3 64 MED_A STR_B</v>
       </c>
       <c r="J62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB4 128 MED_A STR_B</v>
       </c>
       <c r="K62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB4 64 MED_A STR_B</v>
       </c>
       <c r="L62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="M62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>
@@ -2458,51 +2463,51 @@
         <v>11</v>
       </c>
       <c r="B63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="C63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A STR_B</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB1 128 MED_A STR_B</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB1 64 MED_A STR_B</v>
       </c>
       <c r="F63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB2 128 MED_A STR_B</v>
       </c>
       <c r="G63" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>AB2 64 MED_A STR_B</v>
+        <f t="shared" si="4"/>
+        <v>AB2 64,5 MED_A STR_B</v>
       </c>
       <c r="H63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB3 128 MED_A STR_B</v>
       </c>
       <c r="I63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB3 64 MED_A STR_B</v>
       </c>
       <c r="J63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB4 128 MED_A STR_B</v>
       </c>
       <c r="K63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AB4 64 MED_A STR_B</v>
       </c>
       <c r="L63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="M63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>
@@ -2511,51 +2516,51 @@
         <v>12</v>
       </c>
       <c r="B64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="C64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="D64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="E64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="F64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="G64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="H64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="I64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="J64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="K64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="L64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
       <c r="M64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>

--- a/MVPlate/MV_InputTemplate.xlsx
+++ b/MVPlate/MV_InputTemplate.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\MSc Leiden 2nd Year\##LabAst Works\ot2\MVPlate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\WebServer\ot2\MVPlate\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCA68C1-E850-4586-A7D4-64FAD41641C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +26,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="38">
   <si>
     <t>Drug Name</t>
   </si>
@@ -174,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -608,21 +611,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="15" max="15" width="63.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -646,7 +649,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -673,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -700,12 +703,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O4" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
@@ -720,7 +723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
@@ -743,20 +746,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H7" s="9"/>
       <c r="O7" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="13"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>1</v>
       </c>
@@ -794,7 +797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -814,12 +817,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
@@ -850,12 +855,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
@@ -883,12 +890,14 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
@@ -916,12 +925,14 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
@@ -949,12 +960,14 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
@@ -982,12 +995,14 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1015,7 +1030,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1032,12 +1047,12 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>1</v>
       </c>
@@ -1075,7 +1090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1119,7 +1134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1166,7 +1181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1210,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1254,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1298,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1342,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1386,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1427,12 +1442,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>1</v>
       </c>
@@ -1470,7 +1485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1514,7 +1529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -1555,7 +1570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1596,7 +1611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1637,7 +1652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -1678,7 +1693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -1719,7 +1734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -1760,7 +1775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -1801,12 +1816,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>1</v>
       </c>
@@ -1844,7 +1859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +1879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -1902,7 +1917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +1955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -1975,7 +1990,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -2010,7 +2025,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -2045,7 +2060,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -2080,7 +2095,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
@@ -2097,12 +2112,12 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>1</v>
       </c>
@@ -2140,7 +2155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -2193,7 +2208,7 @@
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -2203,7 +2218,7 @@
       </c>
       <c r="C58" s="4" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> 0 MED_A STR_A</v>
+        <v>AB1 0 MED_A STR_A</v>
       </c>
       <c r="D58" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2246,7 +2261,7 @@
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -2256,7 +2271,7 @@
       </c>
       <c r="C59" s="4" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> 0 MED_A STR_A</v>
+        <v>AB1 0 MED_A STR_A</v>
       </c>
       <c r="D59" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2299,7 +2314,7 @@
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -2309,7 +2324,7 @@
       </c>
       <c r="C60" s="4" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> 0 MED_A STR_A</v>
+        <v>AB1 0 MED_A STR_A</v>
       </c>
       <c r="D60" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2352,7 +2367,7 @@
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -2362,7 +2377,7 @@
       </c>
       <c r="C61" s="4" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> 0 MED_A STR_B</v>
+        <v>AB1 0 MED_A STR_B</v>
       </c>
       <c r="D61" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2405,7 +2420,7 @@
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -2415,7 +2430,7 @@
       </c>
       <c r="C62" s="4" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> 0 MED_A STR_B</v>
+        <v>AB1 0 MED_A STR_B</v>
       </c>
       <c r="D62" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2458,7 +2473,7 @@
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -2468,7 +2483,7 @@
       </c>
       <c r="C63" s="4" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> 0 MED_A STR_B</v>
+        <v>AB1 0 MED_A STR_B</v>
       </c>
       <c r="D63" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2511,7 +2526,7 @@
         <v xml:space="preserve"> 0 MED_A </v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -2566,7 +2581,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$O$2:$O$7</formula1>
     </dataValidation>
   </dataValidations>
